--- a/Netflix.xlsx
+++ b/Netflix.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\cd19\Projeto2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17910D2A-5B84-447C-9DC6-66589BAE0F55}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="682">
   <si>
     <t>Treinamento</t>
   </si>
@@ -209,9 +215,6 @@
   </si>
   <si>
     <t>rt @priiaamaral: fui ver the a list na netflix e agora tô me questionando sobre a minha vida inteira kkkkkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>@docmbl vai chegar no netflix?</t>
   </si>
   <si>
     <t>tá eu e eu vendo netflix nesse crimaaa kkkk</t>
@@ -2236,12 +2239,15 @@
   <si>
     <t>quinta temporada de como defender um assassino, se eu tivesse esperado pela netflix, já teria morrido de ansiedade https://t.co/4akrfhkjq1</t>
   </si>
+  <si>
+    <t>Relevância</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2251,6 +2257,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2293,10 +2307,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2304,11 +2323,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2350,7 +2377,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2382,9 +2409,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2416,6 +2461,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2591,4032 +2654,5545 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B502"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
+      <selection activeCell="A502" sqref="A502"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="55" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="71" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="B132" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="B136" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1</v>
+      </c>
+      <c r="B149" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="B151" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="B157" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1</v>
+      </c>
+      <c r="B175" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="B176" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="B177" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>0</v>
+      </c>
+      <c r="B178" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1</v>
+      </c>
+      <c r="B179" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>0</v>
+      </c>
+      <c r="B180" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="B181" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="B182" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1</v>
+      </c>
+      <c r="B183" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>0</v>
+      </c>
+      <c r="B184" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>0</v>
+      </c>
+      <c r="B185" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="B186" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="B187" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="B188" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1</v>
+      </c>
+      <c r="B189" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>0</v>
+      </c>
+      <c r="B190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1</v>
+      </c>
+      <c r="B191" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>0</v>
+      </c>
+      <c r="B192" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="B194" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>1</v>
+      </c>
+      <c r="B196" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>1</v>
+      </c>
+      <c r="B197" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>1</v>
+      </c>
+      <c r="B198" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1</v>
+      </c>
+      <c r="B199" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>1</v>
+      </c>
+      <c r="B200" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>0</v>
+      </c>
+      <c r="B201" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>0</v>
+      </c>
+      <c r="B202" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>0</v>
+      </c>
+      <c r="B203" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>0</v>
+      </c>
+      <c r="B204" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>0</v>
+      </c>
+      <c r="B205" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>0</v>
+      </c>
+      <c r="B206" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>0</v>
+      </c>
+      <c r="B207" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>0</v>
+      </c>
+      <c r="B208" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="B209" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>0</v>
+      </c>
+      <c r="B210" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>1</v>
+      </c>
+      <c r="B211" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>0</v>
+      </c>
+      <c r="B214" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>1</v>
+      </c>
+      <c r="B215" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>1</v>
+      </c>
+      <c r="B217" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>1</v>
+      </c>
+      <c r="B218" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>1</v>
+      </c>
+      <c r="B219" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>0</v>
+      </c>
+      <c r="B220" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>1</v>
+      </c>
+      <c r="B221" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>1</v>
+      </c>
+      <c r="B222" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>1</v>
+      </c>
+      <c r="B223" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>1</v>
+      </c>
+      <c r="B224" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>0</v>
+      </c>
+      <c r="B225" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>1</v>
+      </c>
+      <c r="B226" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>0</v>
+      </c>
+      <c r="B227" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>1</v>
+      </c>
+      <c r="B228" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>0</v>
+      </c>
+      <c r="B229" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>0</v>
+      </c>
+      <c r="B230" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>1</v>
+      </c>
+      <c r="B231" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>0</v>
+      </c>
+      <c r="B232" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="B233" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>0</v>
+      </c>
+      <c r="B234" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="B235" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>1</v>
+      </c>
+      <c r="B236" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>0</v>
+      </c>
+      <c r="B237" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1</v>
+      </c>
+      <c r="B238" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>1</v>
+      </c>
+      <c r="B239" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>0</v>
+      </c>
+      <c r="B240" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>0</v>
+      </c>
+      <c r="B241" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>0</v>
+      </c>
+      <c r="B242" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>1</v>
+      </c>
+      <c r="B243" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>1</v>
+      </c>
+      <c r="B244" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>1</v>
+      </c>
+      <c r="B245" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>0</v>
+      </c>
+      <c r="B246" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>1</v>
+      </c>
+      <c r="B247" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>0</v>
+      </c>
+      <c r="B248" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>1</v>
+      </c>
+      <c r="B249" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>1</v>
+      </c>
+      <c r="B250" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>1</v>
+      </c>
+      <c r="B251" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>1</v>
+      </c>
+      <c r="B252" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>1</v>
+      </c>
+      <c r="B253" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>1</v>
+      </c>
+      <c r="B254" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>1</v>
+      </c>
+      <c r="B255" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>1</v>
+      </c>
+      <c r="B256" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>0</v>
+      </c>
+      <c r="B257" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>0</v>
+      </c>
+      <c r="B258" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>0</v>
+      </c>
+      <c r="B259" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>1</v>
+      </c>
+      <c r="B260" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>1</v>
+      </c>
+      <c r="B261" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>1</v>
+      </c>
+      <c r="B262" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>1</v>
+      </c>
+      <c r="B263" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>1</v>
+      </c>
+      <c r="B264" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>1</v>
+      </c>
+      <c r="B265" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>1</v>
+      </c>
+      <c r="B266" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>1</v>
+      </c>
+      <c r="B267" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>1</v>
+      </c>
+      <c r="B268" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>0</v>
+      </c>
+      <c r="B269" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>1</v>
+      </c>
+      <c r="B270" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>0</v>
+      </c>
+      <c r="B271" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>0</v>
+      </c>
+      <c r="B272" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>0</v>
+      </c>
+      <c r="B273" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>1</v>
+      </c>
+      <c r="B274" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>1</v>
+      </c>
+      <c r="B275" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>0</v>
+      </c>
+      <c r="B276" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>1</v>
+      </c>
+      <c r="B277" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>0</v>
+      </c>
+      <c r="B278" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>1</v>
+      </c>
+      <c r="B279" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>1</v>
+      </c>
+      <c r="B280" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>1</v>
+      </c>
+      <c r="B281" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>1</v>
+      </c>
+      <c r="B282" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>0</v>
+      </c>
+      <c r="B283" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>1</v>
+      </c>
+      <c r="B284" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>0</v>
+      </c>
+      <c r="B285" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>0</v>
+      </c>
+      <c r="B286" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>0</v>
+      </c>
+      <c r="B287" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>1</v>
+      </c>
+      <c r="B288" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>1</v>
+      </c>
+      <c r="B289" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>0</v>
+      </c>
+      <c r="B290" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>0</v>
+      </c>
+      <c r="B291" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>0</v>
+      </c>
+      <c r="B292" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>1</v>
+      </c>
+      <c r="B293" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>0</v>
+      </c>
+      <c r="B294" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>1</v>
+      </c>
+      <c r="B295" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>0</v>
+      </c>
+      <c r="B296" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>1</v>
+      </c>
+      <c r="B297" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>0</v>
+      </c>
+      <c r="B298" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>0</v>
+      </c>
+      <c r="B299" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>1</v>
+      </c>
+      <c r="B300" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>0</v>
+      </c>
+      <c r="B301" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>0</v>
+      </c>
+      <c r="B302" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>0</v>
+      </c>
+      <c r="B303" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>0</v>
+      </c>
+      <c r="B304" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>0</v>
+      </c>
+      <c r="B305" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>1</v>
+      </c>
+      <c r="B306" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>0</v>
+      </c>
+      <c r="B307" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>0</v>
+      </c>
+      <c r="B308" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>1</v>
+      </c>
+      <c r="B309" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>0</v>
+      </c>
+      <c r="B310" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>0</v>
+      </c>
+      <c r="B311" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>0</v>
+      </c>
+      <c r="B312" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>0</v>
+      </c>
+      <c r="B313" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>0</v>
+      </c>
+      <c r="B314" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>1</v>
+      </c>
+      <c r="B315" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>1</v>
+      </c>
+      <c r="B316" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>1</v>
+      </c>
+      <c r="B317" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>1</v>
+      </c>
+      <c r="B318" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>0</v>
+      </c>
+      <c r="B319" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>0</v>
+      </c>
+      <c r="B320" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>0</v>
+      </c>
+      <c r="B321" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>1</v>
+      </c>
+      <c r="B322" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>1</v>
+      </c>
+      <c r="B323" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>1</v>
+      </c>
+      <c r="B324" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>0</v>
+      </c>
+      <c r="B325" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>0</v>
+      </c>
+      <c r="B326" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>1</v>
+      </c>
+      <c r="B327" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>1</v>
+      </c>
+      <c r="B328" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>1</v>
+      </c>
+      <c r="B329" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>1</v>
+      </c>
+      <c r="B330" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>1</v>
+      </c>
+      <c r="B331" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>0</v>
+      </c>
+      <c r="B332" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>1</v>
+      </c>
+      <c r="B333" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>0</v>
+      </c>
+      <c r="B334" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>1</v>
+      </c>
+      <c r="B335" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>0</v>
+      </c>
+      <c r="B336" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>1</v>
+      </c>
+      <c r="B337" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>0</v>
+      </c>
+      <c r="B338" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>0</v>
+      </c>
+      <c r="B339" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>1</v>
+      </c>
+      <c r="B340" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>1</v>
+      </c>
+      <c r="B341" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>0</v>
+      </c>
+      <c r="B342" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>1</v>
+      </c>
+      <c r="B343" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>1</v>
+      </c>
+      <c r="B344" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>1</v>
+      </c>
+      <c r="B345" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>1</v>
+      </c>
+      <c r="B346" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>1</v>
+      </c>
+      <c r="B347" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>1</v>
+      </c>
+      <c r="B348" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>0</v>
+      </c>
+      <c r="B349" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>0</v>
+      </c>
+      <c r="B350" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>1</v>
+      </c>
+      <c r="B351" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>0</v>
+      </c>
+      <c r="B352" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>1</v>
+      </c>
+      <c r="B353" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>1</v>
+      </c>
+      <c r="B354" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>1</v>
+      </c>
+      <c r="B355" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>0</v>
+      </c>
+      <c r="B356" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>0</v>
+      </c>
+      <c r="B357" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>0</v>
+      </c>
+      <c r="B358" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>0</v>
+      </c>
+      <c r="B359" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>0</v>
+      </c>
+      <c r="B360" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>0</v>
+      </c>
+      <c r="B361" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>1</v>
+      </c>
+      <c r="B362" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>1</v>
+      </c>
+      <c r="B363" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>1</v>
+      </c>
+      <c r="B364" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>0</v>
+      </c>
+      <c r="B365" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>0</v>
+      </c>
+      <c r="B366" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>1</v>
+      </c>
+      <c r="B367" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>0</v>
+      </c>
+      <c r="B368" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>0</v>
+      </c>
+      <c r="B369" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>1</v>
+      </c>
+      <c r="B370" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>0</v>
+      </c>
+      <c r="B371" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>1</v>
+      </c>
+      <c r="B372" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>0</v>
+      </c>
+      <c r="B373" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>0</v>
+      </c>
+      <c r="B374" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>0</v>
+      </c>
+      <c r="B375" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>1</v>
+      </c>
+      <c r="B376" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>0</v>
+      </c>
+      <c r="B377" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>0</v>
+      </c>
+      <c r="B378" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>1</v>
+      </c>
+      <c r="B379" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>0</v>
+      </c>
+      <c r="B380" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>1</v>
+      </c>
+      <c r="B381" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>0</v>
+      </c>
+      <c r="B382" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>0</v>
+      </c>
+      <c r="B383" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>1</v>
+      </c>
+      <c r="B384" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>0</v>
+      </c>
+      <c r="B385" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>1</v>
+      </c>
+      <c r="B386" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>0</v>
+      </c>
+      <c r="B387" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>0</v>
+      </c>
+      <c r="B388" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>1</v>
+      </c>
+      <c r="B389" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>0</v>
+      </c>
+      <c r="B390" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>0</v>
+      </c>
+      <c r="B391" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>1</v>
+      </c>
+      <c r="B392" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>0</v>
+      </c>
+      <c r="B393" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>0</v>
+      </c>
+      <c r="B394" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>1</v>
+      </c>
+      <c r="B395" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>0</v>
+      </c>
+      <c r="B396" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>1</v>
+      </c>
+      <c r="B397" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>1</v>
+      </c>
+      <c r="B398" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>0</v>
+      </c>
+      <c r="B399" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>1</v>
+      </c>
+      <c r="B400" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>0</v>
+      </c>
+      <c r="B401" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>0</v>
+      </c>
+      <c r="B402" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>0</v>
+      </c>
+      <c r="B403" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>1</v>
+      </c>
+      <c r="B404" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>0</v>
+      </c>
+      <c r="B405" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>0</v>
+      </c>
+      <c r="B406" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>0</v>
+      </c>
+      <c r="B407" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>1</v>
+      </c>
+      <c r="B408" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>0</v>
+      </c>
+      <c r="B409" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>1</v>
+      </c>
+      <c r="B410" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>1</v>
+      </c>
+      <c r="B411" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>1</v>
+      </c>
+      <c r="B412" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>1</v>
+      </c>
+      <c r="B413" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>1</v>
+      </c>
+      <c r="B414" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>1</v>
+      </c>
+      <c r="B415" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>0</v>
+      </c>
+      <c r="B416" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>0</v>
+      </c>
+      <c r="B417" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>1</v>
+      </c>
+      <c r="B418" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>0</v>
+      </c>
+      <c r="B419" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>0</v>
+      </c>
+      <c r="B420" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>0</v>
+      </c>
+      <c r="B421" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>1</v>
+      </c>
+      <c r="B422" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>1</v>
+      </c>
+      <c r="B423" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>0</v>
+      </c>
+      <c r="B424" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>0</v>
+      </c>
+      <c r="B425" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>0</v>
+      </c>
+      <c r="B426" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>1</v>
+      </c>
+      <c r="B427" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>0</v>
+      </c>
+      <c r="B428" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>0</v>
+      </c>
+      <c r="B429" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>0</v>
+      </c>
+      <c r="B430" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>1</v>
+      </c>
+      <c r="B431" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>1</v>
+      </c>
+      <c r="B432" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>0</v>
+      </c>
+      <c r="B433" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>0</v>
+      </c>
+      <c r="B434" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>1</v>
+      </c>
+      <c r="B435" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>0</v>
+      </c>
+      <c r="B436" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>1</v>
+      </c>
+      <c r="B437" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>0</v>
+      </c>
+      <c r="B438" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>1</v>
+      </c>
+      <c r="B439" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>0</v>
+      </c>
+      <c r="B440" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>0</v>
+      </c>
+      <c r="B441" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>1</v>
+      </c>
+      <c r="B442" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>0</v>
+      </c>
+      <c r="B443" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>0</v>
+      </c>
+      <c r="B444" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>0</v>
+      </c>
+      <c r="B445" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>0</v>
+      </c>
+      <c r="B446" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>0</v>
+      </c>
+      <c r="B447" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>0</v>
+      </c>
+      <c r="B448" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>1</v>
+      </c>
+      <c r="B449" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>0</v>
+      </c>
+      <c r="B450" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>0</v>
+      </c>
+      <c r="B451" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>1</v>
+      </c>
+      <c r="B452" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>0</v>
+      </c>
+      <c r="B453" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>0</v>
+      </c>
+      <c r="B454" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>0</v>
+      </c>
+      <c r="B455" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>0</v>
+      </c>
+      <c r="B456" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>0</v>
+      </c>
+      <c r="B457" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>0</v>
+      </c>
+      <c r="B458" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>1</v>
+      </c>
+      <c r="B459" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>0</v>
+      </c>
+      <c r="B460" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>0</v>
+      </c>
+      <c r="B461" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>0</v>
+      </c>
+      <c r="B462" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>0</v>
+      </c>
+      <c r="B463" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>1</v>
+      </c>
+      <c r="B464" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>1</v>
+      </c>
+      <c r="B465" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>0</v>
+      </c>
+      <c r="B466" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>0</v>
+      </c>
+      <c r="B467" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>0</v>
+      </c>
+      <c r="B468" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>0</v>
+      </c>
+      <c r="B469" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>0</v>
+      </c>
+      <c r="B470" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>0</v>
+      </c>
+      <c r="B471" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>0</v>
+      </c>
+      <c r="B472" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>1</v>
+      </c>
+      <c r="B473" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>0</v>
+      </c>
+      <c r="B474" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>0</v>
+      </c>
+      <c r="B475" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>0</v>
+      </c>
+      <c r="B476" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>0</v>
+      </c>
+      <c r="B477" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>0</v>
+      </c>
+      <c r="B478" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>1</v>
+      </c>
+      <c r="B479" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>1</v>
+      </c>
+      <c r="B480" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>0</v>
+      </c>
+      <c r="B481" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>1</v>
+      </c>
+      <c r="B482" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>0</v>
+      </c>
+      <c r="B483" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>0</v>
+      </c>
+      <c r="B484" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>0</v>
+      </c>
+      <c r="B485" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>0</v>
+      </c>
+      <c r="B486" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>0</v>
+      </c>
+      <c r="B487" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>1</v>
+      </c>
+      <c r="B488" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>0</v>
+      </c>
+      <c r="B489" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>0</v>
+      </c>
+      <c r="B490" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>0</v>
+      </c>
+      <c r="B491" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>1</v>
+      </c>
+      <c r="B492" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>1</v>
+      </c>
+      <c r="B493" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>0</v>
+      </c>
+      <c r="B494" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>0</v>
+      </c>
+      <c r="B495" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1">
-      <c r="A268" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1">
-      <c r="A273" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1">
-      <c r="A274" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1">
-      <c r="A275" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1">
-      <c r="A276" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1">
-      <c r="A277" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1">
-      <c r="A278" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1">
-      <c r="A279" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1">
-      <c r="A280" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1">
-      <c r="A281" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1">
-      <c r="A282" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1">
-      <c r="A283" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1">
-      <c r="A284" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1">
-      <c r="A285" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1">
-      <c r="A286" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1">
-      <c r="A287" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1">
-      <c r="A288" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1">
-      <c r="A289" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1">
-      <c r="A290" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1">
-      <c r="A291" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1">
-      <c r="A292" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1">
-      <c r="A293" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1">
-      <c r="A294" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1">
-      <c r="A295" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1">
-      <c r="A296" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1">
-      <c r="A297" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1">
-      <c r="A298" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1">
-      <c r="A299" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1">
-      <c r="A300" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1">
-      <c r="A301" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1">
-      <c r="A302" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1">
-      <c r="A303" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1">
-      <c r="A304" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1">
-      <c r="A305" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1">
-      <c r="A306" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1">
-      <c r="A307" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1">
-      <c r="A308" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1">
-      <c r="A309" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1">
-      <c r="A310" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1">
-      <c r="A311" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1">
-      <c r="A312" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1">
-      <c r="A313" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1">
-      <c r="A314" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1">
-      <c r="A315" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1">
-      <c r="A316" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1">
-      <c r="A317" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1">
-      <c r="A318" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1">
-      <c r="A319" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1">
-      <c r="A320" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1">
-      <c r="A321" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1">
-      <c r="A322" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1">
-      <c r="A323" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1">
-      <c r="A324" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1">
-      <c r="A325" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1">
-      <c r="A326" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1">
-      <c r="A327" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1">
-      <c r="A328" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1">
-      <c r="A329" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1">
-      <c r="A330" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1">
-      <c r="A331" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1">
-      <c r="A332" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1">
-      <c r="A333" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1">
-      <c r="A334" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1">
-      <c r="A335" t="s">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>0</v>
+      </c>
+      <c r="B496" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>1</v>
+      </c>
+      <c r="B497" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>0</v>
+      </c>
+      <c r="B498" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>0</v>
+      </c>
+      <c r="B499" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
-      <c r="A336" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1">
-      <c r="A337" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1">
-      <c r="A338" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1">
-      <c r="A339" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1">
-      <c r="A340" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1">
-      <c r="A341" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1">
-      <c r="A342" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1">
-      <c r="A343" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1">
-      <c r="A344" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1">
-      <c r="A345" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1">
-      <c r="A346" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1">
-      <c r="A347" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1">
-      <c r="A348" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1">
-      <c r="A349" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1">
-      <c r="A350" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1">
-      <c r="A351" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1">
-      <c r="A352" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1">
-      <c r="A353" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1">
-      <c r="A354" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1">
-      <c r="A355" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1">
-      <c r="A356" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1">
-      <c r="A357" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1">
-      <c r="A358" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1">
-      <c r="A359" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1">
-      <c r="A360" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1">
-      <c r="A361" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1">
-      <c r="A362" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1">
-      <c r="A363" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1">
-      <c r="A364" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1">
-      <c r="A365" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1">
-      <c r="A366" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1">
-      <c r="A367" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1">
-      <c r="A368" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1">
-      <c r="A369" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1">
-      <c r="A370" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1">
-      <c r="A371" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1">
-      <c r="A372" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1">
-      <c r="A373" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1">
-      <c r="A374" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1">
-      <c r="A375" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1">
-      <c r="A376" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1">
-      <c r="A377" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1">
-      <c r="A378" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1">
-      <c r="A379" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1">
-      <c r="A380" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1">
-      <c r="A381" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1">
-      <c r="A382" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1">
-      <c r="A383" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1">
-      <c r="A384" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1">
-      <c r="A385" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1">
-      <c r="A386" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1">
-      <c r="A387" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1">
-      <c r="A388" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1">
-      <c r="A389" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1">
-      <c r="A390" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1">
-      <c r="A391" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1">
-      <c r="A392" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1">
-      <c r="A393" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1">
-      <c r="A394" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1">
-      <c r="A395" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1">
-      <c r="A396" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1">
-      <c r="A397" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1">
-      <c r="A398" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1">
-      <c r="A399" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1">
-      <c r="A400" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1">
-      <c r="A401" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1">
-      <c r="A402" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1">
-      <c r="A403" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1">
-      <c r="A404" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1">
-      <c r="A405" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1">
-      <c r="A406" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1">
-      <c r="A407" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1">
-      <c r="A408" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1">
-      <c r="A409" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1">
-      <c r="A410" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1">
-      <c r="A411" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1">
-      <c r="A412" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1">
-      <c r="A413" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1">
-      <c r="A414" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1">
-      <c r="A415" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1">
-      <c r="A416" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1">
-      <c r="A417" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1">
-      <c r="A418" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1">
-      <c r="A419" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1">
-      <c r="A420" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1">
-      <c r="A421" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1">
-      <c r="A422" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1">
-      <c r="A423" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1">
-      <c r="A424" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1">
-      <c r="A425" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1">
-      <c r="A426" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1">
-      <c r="A427" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1">
-      <c r="A428" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1">
-      <c r="A429" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1">
-      <c r="A430" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1">
-      <c r="A431" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1">
-      <c r="A432" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1">
-      <c r="A433" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1">
-      <c r="A434" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1">
-      <c r="A435" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1">
-      <c r="A436" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1">
-      <c r="A437" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1">
-      <c r="A438" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1">
-      <c r="A439" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1">
-      <c r="A440" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1">
-      <c r="A441" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1">
-      <c r="A442" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1">
-      <c r="A443" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1">
-      <c r="A444" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1">
-      <c r="A445" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1">
-      <c r="A446" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1">
-      <c r="A447" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1">
-      <c r="A448" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1">
-      <c r="A449" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1">
-      <c r="A450" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1">
-      <c r="A451" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1">
-      <c r="A452" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1">
-      <c r="A453" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1">
-      <c r="A454" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1">
-      <c r="A455" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1">
-      <c r="A456" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="457" spans="1:1">
-      <c r="A457" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="458" spans="1:1">
-      <c r="A458" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1">
-      <c r="A459" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="460" spans="1:1">
-      <c r="A460" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="461" spans="1:1">
-      <c r="A461" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="462" spans="1:1">
-      <c r="A462" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1">
-      <c r="A463" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="464" spans="1:1">
-      <c r="A464" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="465" spans="1:1">
-      <c r="A465" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="466" spans="1:1">
-      <c r="A466" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="467" spans="1:1">
-      <c r="A467" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="468" spans="1:1">
-      <c r="A468" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="469" spans="1:1">
-      <c r="A469" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="470" spans="1:1">
-      <c r="A470" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="471" spans="1:1">
-      <c r="A471" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="472" spans="1:1">
-      <c r="A472" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="473" spans="1:1">
-      <c r="A473" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="474" spans="1:1">
-      <c r="A474" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1">
-      <c r="A475" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="476" spans="1:1">
-      <c r="A476" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1">
-      <c r="A477" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="478" spans="1:1">
-      <c r="A478" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="479" spans="1:1">
-      <c r="A479" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="480" spans="1:1">
-      <c r="A480" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="481" spans="1:1">
-      <c r="A481" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1">
-      <c r="A482" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="483" spans="1:1">
-      <c r="A483" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="484" spans="1:1">
-      <c r="A484" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="485" spans="1:1">
-      <c r="A485" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="486" spans="1:1">
-      <c r="A486" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="487" spans="1:1">
-      <c r="A487" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="488" spans="1:1">
-      <c r="A488" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="489" spans="1:1">
-      <c r="A489" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1">
-      <c r="A490" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="491" spans="1:1">
-      <c r="A491" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="492" spans="1:1">
-      <c r="A492" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="493" spans="1:1">
-      <c r="A493" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="494" spans="1:1">
-      <c r="A494" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="495" spans="1:1">
-      <c r="A495" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="496" spans="1:1">
-      <c r="A496" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="497" spans="1:1">
-      <c r="A497" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="498" spans="1:1">
-      <c r="A498" t="s">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>1</v>
+      </c>
+      <c r="B500" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="499" spans="1:1">
-      <c r="A499" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="500" spans="1:1">
-      <c r="A500" t="s">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>1</v>
+      </c>
+      <c r="B501" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="501" spans="1:1">
-      <c r="A501" t="s">
-        <v>429</v>
-      </c>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A301"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
-      <c r="A230" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
-      <c r="A234" t="s">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
-      <c r="A240" t="s">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
-      <c r="A246" t="s">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
-      <c r="A249" t="s">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
-      <c r="A250" t="s">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
-      <c r="A256" t="s">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
-      <c r="A257" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
-      <c r="A261" t="s">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
-      <c r="A262" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" t="s">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
-      <c r="A264" t="s">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
-      <c r="A265" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
-      <c r="A269" t="s">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
-      <c r="A270" t="s">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
-      <c r="A271" t="s">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
-      <c r="A272" t="s">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
-      <c r="A273" t="s">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
-      <c r="A274" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1">
-      <c r="A275" t="s">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
-      <c r="A276" t="s">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
-      <c r="A277" t="s">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
-      <c r="A278" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1">
-      <c r="A279" t="s">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
-      <c r="A280" t="s">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
-      <c r="A281" t="s">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
-      <c r="A282" t="s">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
-      <c r="A283" t="s">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
-      <c r="A284" t="s">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
-      <c r="A285" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
-      <c r="A288" t="s">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
-      <c r="A289" t="s">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
-      <c r="A290" t="s">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
-      <c r="A291" t="s">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
-      <c r="A292" t="s">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
-      <c r="A293" t="s">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
-      <c r="A294" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
-      <c r="A297" t="s">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
-      <c r="A298" t="s">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
-      <c r="A299" t="s">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
-      <c r="A300" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>3</v>
       </c>

--- a/Netflix.xlsx
+++ b/Netflix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\cd19\Projeto2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\projeto2-cdados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17910D2A-5B84-447C-9DC6-66589BAE0F55}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB312CB-2C1F-48E9-A91B-81C1EC5A7D76}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2307,14 +2307,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2657,4026 +2658,4026 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="A502" sqref="A502"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="1" max="1" width="18" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="A28" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="A32" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="A33" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="A34" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>0</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="A37" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="A38" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="A39" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>0</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="A40" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="A41" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="A42" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="A43" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="A44" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>0</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="A45" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>0</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="A46" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="A47" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="A48" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="A49" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="A50" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>0</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="A51" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="A52" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="A53" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>0</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="A54" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>0</v>
-      </c>
-      <c r="B55" s="4" t="s">
+      <c r="A55" s="5" t="s">
         <v>47</v>
       </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="A56" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>0</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="A57" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="A58" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="A59" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>0</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="A60" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="A61" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="A62" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="A63" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>1</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="A64" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>1</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="A65" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>0</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="A66" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>1</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="A67" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>1</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="A68" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>1</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="A69" s="4" t="s">
         <v>60</v>
       </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>0</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="A70" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>0</v>
-      </c>
-      <c r="B71" s="4" t="s">
+      <c r="A71" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>1</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="A72" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>1</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="A73" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>1</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="A74" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>0</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="A75" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>0</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="A76" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>1</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="A77" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>1</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="A78" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>1</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="A79" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <v>0</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="A80" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="B80" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>0</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="A81" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>1</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="A82" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>1</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="A83" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>0</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="A84" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>1</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="A85" s="4" t="s">
         <v>72</v>
       </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>1</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="A86" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>1</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="A87" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>1</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="A88" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>0</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="A89" s="4" t="s">
         <v>75</v>
       </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>0</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="A90" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>0</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="A91" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>0</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="A92" s="4" t="s">
         <v>78</v>
       </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>0</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="A93" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>1</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="A94" s="4" t="s">
         <v>80</v>
       </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>1</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="A95" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>1</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="A96" s="4" t="s">
         <v>82</v>
       </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>0</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="A97" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>0</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="A98" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>0</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="A99" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>1</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="A100" s="4" t="s">
         <v>86</v>
       </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>1</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="A101" s="4" t="s">
         <v>87</v>
       </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>1</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="A102" s="4" t="s">
         <v>88</v>
       </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>1</v>
-      </c>
-      <c r="B103" t="s">
+      <c r="A103" s="4" t="s">
         <v>89</v>
       </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>0</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="A104" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>0</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="A105" s="4" t="s">
         <v>91</v>
       </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>1</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="A106" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>0</v>
-      </c>
-      <c r="B107" t="s">
+      <c r="A107" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>1</v>
-      </c>
-      <c r="B108" t="s">
+      <c r="A108" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>0</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="A109" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>0</v>
-      </c>
-      <c r="B110" t="s">
+      <c r="A110" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>0</v>
-      </c>
-      <c r="B111" t="s">
+      <c r="A111" s="4" t="s">
         <v>97</v>
       </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>1</v>
-      </c>
-      <c r="B112" t="s">
+      <c r="A112" s="4" t="s">
         <v>98</v>
       </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>0</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="A113" s="4" t="s">
         <v>99</v>
       </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>1</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="A114" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>1</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="A115" s="4" t="s">
         <v>101</v>
       </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>1</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="A116" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>0</v>
-      </c>
-      <c r="B117" t="s">
+      <c r="A117" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>0</v>
-      </c>
-      <c r="B118" t="s">
+      <c r="A118" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>0</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="A119" s="4" t="s">
         <v>104</v>
       </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>0</v>
-      </c>
-      <c r="B120" t="s">
+      <c r="A120" s="4" t="s">
         <v>105</v>
       </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>0</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="A121" s="4" t="s">
         <v>106</v>
       </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>1</v>
-      </c>
-      <c r="B122" t="s">
+      <c r="A122" s="4" t="s">
         <v>107</v>
       </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>0</v>
-      </c>
-      <c r="B123" t="s">
+      <c r="A123" s="4" t="s">
         <v>108</v>
       </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>1</v>
-      </c>
-      <c r="B124" t="s">
+      <c r="A124" s="4" t="s">
         <v>109</v>
       </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>0</v>
-      </c>
-      <c r="B125" t="s">
+      <c r="A125" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>0</v>
-      </c>
-      <c r="B126" t="s">
+      <c r="A126" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>0</v>
-      </c>
-      <c r="B127" t="s">
+      <c r="A127" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>0</v>
-      </c>
-      <c r="B128" t="s">
+      <c r="A128" s="4" t="s">
         <v>111</v>
       </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>0</v>
-      </c>
-      <c r="B129" t="s">
+      <c r="A129" s="4" t="s">
         <v>112</v>
       </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>1</v>
-      </c>
-      <c r="B130" t="s">
+      <c r="A130" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>1</v>
-      </c>
-      <c r="B131" t="s">
+      <c r="A131" s="4" t="s">
         <v>114</v>
       </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>1</v>
-      </c>
-      <c r="B132" t="s">
+      <c r="A132" s="4" t="s">
         <v>115</v>
       </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>1</v>
-      </c>
-      <c r="B133" t="s">
+      <c r="A133" s="4" t="s">
         <v>116</v>
       </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>1</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="A134" s="4" t="s">
         <v>117</v>
       </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>1</v>
-      </c>
-      <c r="B135" t="s">
+      <c r="A135" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>1</v>
-      </c>
-      <c r="B136" t="s">
+      <c r="A136" s="4" t="s">
         <v>119</v>
       </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>0</v>
-      </c>
-      <c r="B137" t="s">
+      <c r="A137" s="4" t="s">
         <v>99</v>
       </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>1</v>
-      </c>
-      <c r="B138" t="s">
+      <c r="A138" s="4" t="s">
         <v>120</v>
       </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>0</v>
-      </c>
-      <c r="B139" t="s">
+      <c r="A139" s="4" t="s">
         <v>121</v>
       </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>0</v>
-      </c>
-      <c r="B140" t="s">
+      <c r="A140" s="4" t="s">
         <v>122</v>
       </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>1</v>
-      </c>
-      <c r="B141" t="s">
+      <c r="A141" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>1</v>
-      </c>
-      <c r="B142" t="s">
+      <c r="A142" s="4" t="s">
         <v>124</v>
       </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>0</v>
-      </c>
-      <c r="B143" t="s">
+      <c r="A143" s="4" t="s">
         <v>125</v>
       </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>0</v>
-      </c>
-      <c r="B144" t="s">
+      <c r="A144" s="4" t="s">
         <v>126</v>
       </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>1</v>
-      </c>
-      <c r="B145" t="s">
+      <c r="A145" s="4" t="s">
         <v>127</v>
       </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>0</v>
-      </c>
-      <c r="B146" t="s">
+      <c r="A146" s="4" t="s">
         <v>128</v>
       </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>1</v>
-      </c>
-      <c r="B147" t="s">
+      <c r="A147" s="4" t="s">
         <v>129</v>
       </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>0</v>
-      </c>
-      <c r="B148" t="s">
+      <c r="A148" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>1</v>
-      </c>
-      <c r="B149" t="s">
+      <c r="A149" s="4" t="s">
         <v>130</v>
       </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>1</v>
-      </c>
-      <c r="B150" t="s">
+      <c r="A150" s="4" t="s">
         <v>131</v>
       </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>1</v>
-      </c>
-      <c r="B151" t="s">
+      <c r="A151" s="4" t="s">
         <v>132</v>
       </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>0</v>
-      </c>
-      <c r="B152" t="s">
+      <c r="A152" s="4" t="s">
         <v>133</v>
       </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>1</v>
-      </c>
-      <c r="B153" t="s">
+      <c r="A153" s="4" t="s">
         <v>134</v>
       </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>0</v>
-      </c>
-      <c r="B154" t="s">
+      <c r="A154" s="4" t="s">
         <v>135</v>
       </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>0</v>
-      </c>
-      <c r="B155" t="s">
+      <c r="A155" s="4" t="s">
         <v>136</v>
       </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>0</v>
-      </c>
-      <c r="B156" t="s">
+      <c r="A156" s="4" t="s">
         <v>137</v>
       </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>1</v>
-      </c>
-      <c r="B157" t="s">
+      <c r="A157" s="4" t="s">
         <v>138</v>
       </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>0</v>
-      </c>
-      <c r="B158" t="s">
+      <c r="A158" s="4" t="s">
         <v>139</v>
       </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>0</v>
-      </c>
-      <c r="B159" t="s">
+      <c r="A159" s="4" t="s">
         <v>140</v>
       </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>1</v>
-      </c>
-      <c r="B160" t="s">
+      <c r="A160" s="4" t="s">
         <v>141</v>
       </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>0</v>
-      </c>
-      <c r="B161" t="s">
+      <c r="A161" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>1</v>
-      </c>
-      <c r="B162" t="s">
+      <c r="A162" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>0</v>
-      </c>
-      <c r="B163" t="s">
+      <c r="A163" s="4" t="s">
         <v>143</v>
       </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>0</v>
-      </c>
-      <c r="B164" t="s">
+      <c r="A164" s="4" t="s">
         <v>144</v>
       </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>0</v>
-      </c>
-      <c r="B165" t="s">
+      <c r="A165" s="4" t="s">
         <v>145</v>
       </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>1</v>
-      </c>
-      <c r="B166" t="s">
+      <c r="A166" s="4" t="s">
         <v>146</v>
       </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>1</v>
-      </c>
-      <c r="B167" t="s">
+      <c r="A167" s="4" t="s">
         <v>72</v>
       </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>1</v>
-      </c>
-      <c r="B168" t="s">
+      <c r="A168" s="4" t="s">
         <v>147</v>
       </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>1</v>
-      </c>
-      <c r="B169" t="s">
+      <c r="A169" s="4" t="s">
         <v>148</v>
       </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>0</v>
-      </c>
-      <c r="B170" t="s">
+      <c r="A170" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>1</v>
-      </c>
-      <c r="B171" t="s">
+      <c r="A171" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>0</v>
-      </c>
-      <c r="B172" t="s">
+      <c r="A172" s="4" t="s">
         <v>150</v>
       </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>0</v>
-      </c>
-      <c r="B173" t="s">
+      <c r="A173" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>1</v>
-      </c>
-      <c r="B174" t="s">
+      <c r="A174" s="4" t="s">
         <v>151</v>
       </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>1</v>
-      </c>
-      <c r="B175" t="s">
+      <c r="A175" s="4" t="s">
         <v>152</v>
       </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>1</v>
-      </c>
-      <c r="B176" t="s">
+      <c r="A176" s="4" t="s">
         <v>153</v>
       </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>1</v>
-      </c>
-      <c r="B177" t="s">
+      <c r="A177" s="4" t="s">
         <v>154</v>
       </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>0</v>
-      </c>
-      <c r="B178" t="s">
+      <c r="A178" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>1</v>
-      </c>
-      <c r="B179" t="s">
+      <c r="A179" s="4" t="s">
         <v>155</v>
       </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>0</v>
-      </c>
-      <c r="B180" t="s">
+      <c r="A180" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>1</v>
-      </c>
-      <c r="B181" t="s">
+      <c r="A181" s="4" t="s">
         <v>156</v>
       </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>1</v>
-      </c>
-      <c r="B182" t="s">
+      <c r="A182" s="4" t="s">
         <v>157</v>
       </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>1</v>
-      </c>
-      <c r="B183" t="s">
+      <c r="A183" s="4" t="s">
         <v>158</v>
       </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>0</v>
-      </c>
-      <c r="B184" t="s">
+      <c r="A184" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>0</v>
-      </c>
-      <c r="B185" t="s">
+      <c r="A185" s="4" t="s">
         <v>159</v>
       </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>1</v>
-      </c>
-      <c r="B186" t="s">
+      <c r="A186" s="4" t="s">
         <v>160</v>
       </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>1</v>
-      </c>
-      <c r="B187" t="s">
+      <c r="A187" s="4" t="s">
         <v>161</v>
       </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>1</v>
-      </c>
-      <c r="B188" t="s">
+      <c r="A188" s="4" t="s">
         <v>162</v>
       </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>1</v>
-      </c>
-      <c r="B189" t="s">
+      <c r="A189" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>0</v>
-      </c>
-      <c r="B190" t="s">
+      <c r="A190" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>1</v>
-      </c>
-      <c r="B191" t="s">
+      <c r="A191" s="4" t="s">
         <v>164</v>
       </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>0</v>
-      </c>
-      <c r="B192" t="s">
+      <c r="A192" s="4" t="s">
         <v>165</v>
       </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>0</v>
-      </c>
-      <c r="B193" t="s">
+      <c r="A193" s="4" t="s">
         <v>166</v>
       </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>1</v>
-      </c>
-      <c r="B194" t="s">
+      <c r="A194" s="4" t="s">
         <v>167</v>
       </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>0</v>
-      </c>
-      <c r="B195" t="s">
+      <c r="A195" s="4" t="s">
         <v>168</v>
       </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>1</v>
-      </c>
-      <c r="B196" t="s">
+      <c r="A196" s="4" t="s">
         <v>169</v>
       </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>1</v>
-      </c>
-      <c r="B197" t="s">
+      <c r="A197" s="4" t="s">
         <v>170</v>
       </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>1</v>
-      </c>
-      <c r="B198" t="s">
+      <c r="A198" s="4" t="s">
         <v>171</v>
       </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>1</v>
-      </c>
-      <c r="B199" t="s">
+      <c r="A199" s="4" t="s">
         <v>172</v>
       </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>1</v>
-      </c>
-      <c r="B200" t="s">
+      <c r="A200" s="4" t="s">
         <v>173</v>
       </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>0</v>
-      </c>
-      <c r="B201" t="s">
+      <c r="A201" s="4" t="s">
         <v>174</v>
       </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>0</v>
-      </c>
-      <c r="B202" t="s">
+      <c r="A202" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>0</v>
-      </c>
-      <c r="B203" t="s">
+      <c r="A203" s="4" t="s">
         <v>175</v>
       </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>0</v>
-      </c>
-      <c r="B204" t="s">
+      <c r="A204" s="4" t="s">
         <v>176</v>
       </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>0</v>
-      </c>
-      <c r="B205" t="s">
+      <c r="A205" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>0</v>
-      </c>
-      <c r="B206" t="s">
+      <c r="A206" s="4" t="s">
         <v>177</v>
       </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>0</v>
-      </c>
-      <c r="B207" t="s">
+      <c r="A207" s="4" t="s">
         <v>178</v>
       </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>0</v>
-      </c>
-      <c r="B208" t="s">
+      <c r="A208" s="4" t="s">
         <v>179</v>
       </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>1</v>
-      </c>
-      <c r="B209" t="s">
+      <c r="A209" s="4" t="s">
         <v>180</v>
       </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>0</v>
-      </c>
-      <c r="B210" t="s">
+      <c r="A210" s="4" t="s">
         <v>181</v>
       </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>1</v>
-      </c>
-      <c r="B211" t="s">
+      <c r="A211" s="4" t="s">
         <v>182</v>
       </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>1</v>
-      </c>
-      <c r="B212" t="s">
+      <c r="A212" s="4" t="s">
         <v>183</v>
       </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>0</v>
-      </c>
-      <c r="B213" t="s">
+      <c r="A213" s="4" t="s">
         <v>184</v>
       </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>0</v>
-      </c>
-      <c r="B214" t="s">
+      <c r="A214" s="4" t="s">
         <v>185</v>
       </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>1</v>
-      </c>
-      <c r="B215" t="s">
+      <c r="A215" s="4" t="s">
         <v>186</v>
       </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>0</v>
-      </c>
-      <c r="B216" t="s">
+      <c r="A216" s="4" t="s">
         <v>187</v>
       </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>1</v>
-      </c>
-      <c r="B217" t="s">
+      <c r="A217" s="4" t="s">
         <v>188</v>
       </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>1</v>
-      </c>
-      <c r="B218" t="s">
+      <c r="A218" s="4" t="s">
         <v>189</v>
       </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>1</v>
-      </c>
-      <c r="B219" t="s">
+      <c r="A219" s="4" t="s">
         <v>190</v>
       </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>0</v>
-      </c>
-      <c r="B220" t="s">
+      <c r="A220" s="4" t="s">
         <v>191</v>
       </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>1</v>
-      </c>
-      <c r="B221" t="s">
+      <c r="A221" s="4" t="s">
         <v>192</v>
       </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>1</v>
-      </c>
-      <c r="B222" t="s">
+      <c r="A222" s="4" t="s">
         <v>193</v>
       </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>1</v>
-      </c>
-      <c r="B223" t="s">
+      <c r="A223" s="4" t="s">
         <v>194</v>
       </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>1</v>
-      </c>
-      <c r="B224" t="s">
+      <c r="A224" s="4" t="s">
         <v>195</v>
       </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>0</v>
-      </c>
-      <c r="B225" t="s">
+      <c r="A225" s="4" t="s">
         <v>196</v>
       </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>1</v>
-      </c>
-      <c r="B226" t="s">
+      <c r="A226" s="4" t="s">
         <v>197</v>
       </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>0</v>
-      </c>
-      <c r="B227" t="s">
+      <c r="A227" s="4" t="s">
         <v>150</v>
       </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>1</v>
-      </c>
-      <c r="B228" t="s">
+      <c r="A228" s="4" t="s">
         <v>198</v>
       </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>0</v>
-      </c>
-      <c r="B229" t="s">
+      <c r="A229" s="4" t="s">
         <v>112</v>
       </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>0</v>
-      </c>
-      <c r="B230" t="s">
+      <c r="A230" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>1</v>
-      </c>
-      <c r="B231" t="s">
+      <c r="A231" s="4" t="s">
         <v>199</v>
       </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>0</v>
-      </c>
-      <c r="B232" t="s">
+      <c r="A232" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>1</v>
-      </c>
-      <c r="B233" t="s">
+      <c r="A233" s="4" t="s">
         <v>200</v>
       </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>0</v>
-      </c>
-      <c r="B234" t="s">
+      <c r="A234" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>1</v>
-      </c>
-      <c r="B235" t="s">
+      <c r="A235" s="4" t="s">
         <v>201</v>
       </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>1</v>
-      </c>
-      <c r="B236" t="s">
+      <c r="A236" s="4" t="s">
         <v>202</v>
       </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>0</v>
-      </c>
-      <c r="B237" t="s">
+      <c r="A237" s="4" t="s">
         <v>203</v>
       </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>1</v>
-      </c>
-      <c r="B238" t="s">
+      <c r="A238" s="4" t="s">
         <v>204</v>
       </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>1</v>
-      </c>
-      <c r="B239" t="s">
+      <c r="A239" s="4" t="s">
         <v>205</v>
       </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>0</v>
-      </c>
-      <c r="B240" t="s">
+      <c r="A240" s="4" t="s">
         <v>206</v>
       </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>0</v>
-      </c>
-      <c r="B241" t="s">
+      <c r="A241" s="4" t="s">
         <v>207</v>
       </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>0</v>
-      </c>
-      <c r="B242" t="s">
+      <c r="A242" s="4" t="s">
         <v>150</v>
       </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>1</v>
-      </c>
-      <c r="B243" t="s">
+      <c r="A243" s="4" t="s">
         <v>208</v>
       </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>1</v>
-      </c>
-      <c r="B244" t="s">
+      <c r="A244" s="4" t="s">
         <v>209</v>
       </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>1</v>
-      </c>
-      <c r="B245" t="s">
+      <c r="A245" s="4" t="s">
         <v>210</v>
       </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>0</v>
-      </c>
-      <c r="B246" t="s">
+      <c r="A246" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>1</v>
-      </c>
-      <c r="B247" t="s">
+      <c r="A247" s="4" t="s">
         <v>211</v>
       </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248">
-        <v>0</v>
-      </c>
-      <c r="B248" t="s">
+      <c r="A248" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>1</v>
-      </c>
-      <c r="B249" t="s">
+      <c r="A249" s="4" t="s">
         <v>212</v>
       </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>1</v>
-      </c>
-      <c r="B250" t="s">
+      <c r="A250" s="4" t="s">
         <v>213</v>
       </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>1</v>
-      </c>
-      <c r="B251" t="s">
+      <c r="A251" s="4" t="s">
         <v>193</v>
       </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>1</v>
-      </c>
-      <c r="B252" t="s">
+      <c r="A252" s="4" t="s">
         <v>214</v>
       </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>1</v>
-      </c>
-      <c r="B253" t="s">
+      <c r="A253" s="4" t="s">
         <v>215</v>
       </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>1</v>
-      </c>
-      <c r="B254" t="s">
+      <c r="A254" s="4" t="s">
         <v>216</v>
       </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>1</v>
-      </c>
-      <c r="B255" t="s">
+      <c r="A255" s="4" t="s">
         <v>217</v>
       </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>1</v>
-      </c>
-      <c r="B256" t="s">
+      <c r="A256" s="4" t="s">
         <v>158</v>
       </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>0</v>
-      </c>
-      <c r="B257" t="s">
+      <c r="A257" s="4" t="s">
         <v>218</v>
       </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>0</v>
-      </c>
-      <c r="B258" t="s">
+      <c r="A258" s="4" t="s">
         <v>219</v>
       </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>0</v>
-      </c>
-      <c r="B259" t="s">
+      <c r="A259" s="4" t="s">
         <v>220</v>
       </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>1</v>
-      </c>
-      <c r="B260" t="s">
+      <c r="A260" s="4" t="s">
         <v>221</v>
       </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261">
-        <v>1</v>
-      </c>
-      <c r="B261" t="s">
+      <c r="A261" s="4" t="s">
         <v>222</v>
       </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>1</v>
-      </c>
-      <c r="B262" t="s">
+      <c r="A262" s="4" t="s">
         <v>223</v>
       </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>1</v>
-      </c>
-      <c r="B263" t="s">
+      <c r="A263" s="4" t="s">
         <v>224</v>
       </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>1</v>
-      </c>
-      <c r="B264" t="s">
+      <c r="A264" s="4" t="s">
         <v>225</v>
       </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>1</v>
-      </c>
-      <c r="B265" t="s">
+      <c r="A265" s="4" t="s">
         <v>226</v>
       </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266">
-        <v>1</v>
-      </c>
-      <c r="B266" t="s">
+      <c r="A266" s="4" t="s">
         <v>227</v>
       </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267">
-        <v>1</v>
-      </c>
-      <c r="B267" t="s">
+      <c r="A267" s="4" t="s">
         <v>228</v>
       </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268">
-        <v>1</v>
-      </c>
-      <c r="B268" t="s">
+      <c r="A268" s="4" t="s">
         <v>229</v>
       </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269">
-        <v>0</v>
-      </c>
-      <c r="B269" t="s">
+      <c r="A269" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270">
-        <v>1</v>
-      </c>
-      <c r="B270" t="s">
+      <c r="A270" s="4" t="s">
         <v>230</v>
       </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271">
-        <v>0</v>
-      </c>
-      <c r="B271" t="s">
+      <c r="A271" s="4" t="s">
         <v>231</v>
       </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272">
-        <v>0</v>
-      </c>
-      <c r="B272" t="s">
+      <c r="A272" s="4" t="s">
         <v>232</v>
       </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273">
-        <v>0</v>
-      </c>
-      <c r="B273" t="s">
+      <c r="A273" s="4" t="s">
         <v>233</v>
       </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274">
-        <v>1</v>
-      </c>
-      <c r="B274" t="s">
+      <c r="A274" s="4" t="s">
         <v>234</v>
       </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275">
-        <v>1</v>
-      </c>
-      <c r="B275" t="s">
+      <c r="A275" s="4" t="s">
         <v>235</v>
       </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276">
-        <v>0</v>
-      </c>
-      <c r="B276" t="s">
+      <c r="A276" s="4" t="s">
         <v>236</v>
       </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277">
-        <v>1</v>
-      </c>
-      <c r="B277" t="s">
+      <c r="A277" s="4" t="s">
         <v>152</v>
       </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278">
-        <v>0</v>
-      </c>
-      <c r="B278" t="s">
+      <c r="A278" s="4" t="s">
         <v>237</v>
       </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279">
-        <v>1</v>
-      </c>
-      <c r="B279" t="s">
+      <c r="A279" s="4" t="s">
         <v>238</v>
       </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280">
-        <v>1</v>
-      </c>
-      <c r="B280" t="s">
+      <c r="A280" s="4" t="s">
         <v>239</v>
       </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281">
-        <v>1</v>
-      </c>
-      <c r="B281" t="s">
+      <c r="A281" s="4" t="s">
         <v>240</v>
       </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282">
-        <v>1</v>
-      </c>
-      <c r="B282" t="s">
+      <c r="A282" s="4" t="s">
         <v>241</v>
       </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283">
-        <v>0</v>
-      </c>
-      <c r="B283" t="s">
+      <c r="A283" s="4" t="s">
         <v>126</v>
       </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284">
-        <v>1</v>
-      </c>
-      <c r="B284" t="s">
+      <c r="A284" s="4" t="s">
         <v>242</v>
       </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285">
-        <v>0</v>
-      </c>
-      <c r="B285" t="s">
+      <c r="A285" s="4" t="s">
         <v>206</v>
       </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286">
-        <v>0</v>
-      </c>
-      <c r="B286" t="s">
+      <c r="A286" s="4" t="s">
         <v>243</v>
       </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287">
-        <v>0</v>
-      </c>
-      <c r="B287" t="s">
+      <c r="A287" s="4" t="s">
         <v>244</v>
       </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288">
-        <v>1</v>
-      </c>
-      <c r="B288" t="s">
+      <c r="A288" s="4" t="s">
         <v>245</v>
       </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289">
-        <v>1</v>
-      </c>
-      <c r="B289" t="s">
+      <c r="A289" s="4" t="s">
         <v>246</v>
       </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290">
-        <v>0</v>
-      </c>
-      <c r="B290" t="s">
+      <c r="A290" s="4" t="s">
         <v>247</v>
       </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291">
-        <v>0</v>
-      </c>
-      <c r="B291" t="s">
+      <c r="A291" s="4" t="s">
         <v>248</v>
       </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292">
-        <v>0</v>
-      </c>
-      <c r="B292" t="s">
+      <c r="A292" s="4" t="s">
         <v>249</v>
       </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293">
-        <v>1</v>
-      </c>
-      <c r="B293" t="s">
+      <c r="A293" s="4" t="s">
         <v>250</v>
       </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294">
-        <v>0</v>
-      </c>
-      <c r="B294" t="s">
+      <c r="A294" s="4" t="s">
         <v>251</v>
       </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295">
-        <v>1</v>
-      </c>
-      <c r="B295" t="s">
+      <c r="A295" s="4" t="s">
         <v>252</v>
       </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296">
-        <v>0</v>
-      </c>
-      <c r="B296" t="s">
+      <c r="A296" s="4" t="s">
         <v>253</v>
       </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297">
-        <v>1</v>
-      </c>
-      <c r="B297" t="s">
+      <c r="A297" s="4" t="s">
         <v>192</v>
       </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298">
-        <v>0</v>
-      </c>
-      <c r="B298" t="s">
+      <c r="A298" s="4" t="s">
         <v>254</v>
       </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299">
-        <v>0</v>
-      </c>
-      <c r="B299" t="s">
+      <c r="A299" s="4" t="s">
         <v>255</v>
       </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300">
-        <v>1</v>
-      </c>
-      <c r="B300" t="s">
+      <c r="A300" s="4" t="s">
         <v>256</v>
       </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301">
-        <v>0</v>
-      </c>
-      <c r="B301" t="s">
+      <c r="A301" s="4" t="s">
         <v>257</v>
       </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302">
-        <v>0</v>
-      </c>
-      <c r="B302" t="s">
+      <c r="A302" s="4" t="s">
         <v>258</v>
       </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303">
-        <v>0</v>
-      </c>
-      <c r="B303" t="s">
+      <c r="A303" s="4" t="s">
         <v>259</v>
       </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304">
-        <v>0</v>
-      </c>
-      <c r="B304" t="s">
+      <c r="A304" s="4" t="s">
         <v>260</v>
       </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305">
-        <v>0</v>
-      </c>
-      <c r="B305" t="s">
+      <c r="A305" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306">
-        <v>1</v>
-      </c>
-      <c r="B306" t="s">
+      <c r="A306" s="4" t="s">
         <v>261</v>
       </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307">
-        <v>0</v>
-      </c>
-      <c r="B307" t="s">
+      <c r="A307" s="4" t="s">
         <v>262</v>
       </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308">
-        <v>0</v>
-      </c>
-      <c r="B308" t="s">
+      <c r="A308" s="4" t="s">
         <v>263</v>
       </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309">
-        <v>1</v>
-      </c>
-      <c r="B309" t="s">
+      <c r="A309" s="4" t="s">
         <v>264</v>
       </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310">
-        <v>0</v>
-      </c>
-      <c r="B310" t="s">
+      <c r="A310" s="4" t="s">
         <v>265</v>
       </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311">
-        <v>0</v>
-      </c>
-      <c r="B311" t="s">
+      <c r="A311" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312">
-        <v>0</v>
-      </c>
-      <c r="B312" t="s">
+      <c r="A312" s="4" t="s">
         <v>266</v>
       </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313">
-        <v>0</v>
-      </c>
-      <c r="B313" t="s">
+      <c r="A313" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314">
-        <v>0</v>
-      </c>
-      <c r="B314" t="s">
+      <c r="A314" s="4" t="s">
         <v>267</v>
       </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315">
-        <v>1</v>
-      </c>
-      <c r="B315" t="s">
+      <c r="A315" s="4" t="s">
         <v>268</v>
       </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316">
-        <v>1</v>
-      </c>
-      <c r="B316" t="s">
+      <c r="A316" s="4" t="s">
         <v>269</v>
       </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317">
-        <v>1</v>
-      </c>
-      <c r="B317" t="s">
+      <c r="A317" s="4" t="s">
         <v>270</v>
       </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318">
-        <v>1</v>
-      </c>
-      <c r="B318" t="s">
+      <c r="A318" s="4" t="s">
         <v>271</v>
       </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319">
-        <v>0</v>
-      </c>
-      <c r="B319" t="s">
+      <c r="A319" s="4" t="s">
         <v>272</v>
       </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320">
-        <v>0</v>
-      </c>
-      <c r="B320" t="s">
+      <c r="A320" s="4" t="s">
         <v>273</v>
       </c>
+      <c r="B320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321">
-        <v>0</v>
-      </c>
-      <c r="B321" t="s">
+      <c r="A321" s="4" t="s">
         <v>274</v>
       </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322">
-        <v>1</v>
-      </c>
-      <c r="B322" t="s">
+      <c r="A322" s="4" t="s">
         <v>275</v>
       </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323">
-        <v>1</v>
-      </c>
-      <c r="B323" t="s">
+      <c r="A323" s="4" t="s">
         <v>276</v>
       </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324">
-        <v>1</v>
-      </c>
-      <c r="B324" t="s">
+      <c r="A324" s="4" t="s">
         <v>277</v>
       </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325">
-        <v>0</v>
-      </c>
-      <c r="B325" t="s">
+      <c r="A325" s="4" t="s">
         <v>278</v>
       </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326">
-        <v>0</v>
-      </c>
-      <c r="B326" t="s">
+      <c r="A326" s="4" t="s">
         <v>279</v>
       </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327">
-        <v>1</v>
-      </c>
-      <c r="B327" t="s">
+      <c r="A327" s="4" t="s">
         <v>280</v>
       </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328">
-        <v>1</v>
-      </c>
-      <c r="B328" t="s">
+      <c r="A328" s="4" t="s">
         <v>281</v>
       </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329">
-        <v>1</v>
-      </c>
-      <c r="B329" t="s">
+      <c r="A329" s="4" t="s">
         <v>282</v>
       </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330">
-        <v>1</v>
-      </c>
-      <c r="B330" t="s">
+      <c r="A330" s="4" t="s">
         <v>283</v>
       </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331">
-        <v>1</v>
-      </c>
-      <c r="B331" t="s">
+      <c r="A331" s="4" t="s">
         <v>284</v>
       </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332">
-        <v>0</v>
-      </c>
-      <c r="B332" t="s">
+      <c r="A332" s="4" t="s">
         <v>285</v>
       </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333">
-        <v>1</v>
-      </c>
-      <c r="B333" t="s">
+      <c r="A333" s="4" t="s">
         <v>286</v>
       </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334">
-        <v>0</v>
-      </c>
-      <c r="B334" t="s">
+      <c r="A334" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335">
-        <v>1</v>
-      </c>
-      <c r="B335" t="s">
+      <c r="A335" s="4" t="s">
         <v>287</v>
       </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336">
-        <v>0</v>
-      </c>
-      <c r="B336" t="s">
+      <c r="A336" s="4" t="s">
         <v>288</v>
       </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337">
-        <v>1</v>
-      </c>
-      <c r="B337" t="s">
+      <c r="A337" s="4" t="s">
         <v>289</v>
       </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338">
-        <v>0</v>
-      </c>
-      <c r="B338" t="s">
+      <c r="A338" s="4" t="s">
         <v>290</v>
       </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339">
-        <v>0</v>
-      </c>
-      <c r="B339" t="s">
+      <c r="A339" s="4" t="s">
         <v>291</v>
       </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340">
-        <v>1</v>
-      </c>
-      <c r="B340" t="s">
+      <c r="A340" s="4" t="s">
         <v>292</v>
       </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341">
-        <v>1</v>
-      </c>
-      <c r="B341" t="s">
+      <c r="A341" s="4" t="s">
         <v>293</v>
       </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342">
-        <v>0</v>
-      </c>
-      <c r="B342" t="s">
+      <c r="A342" s="4" t="s">
         <v>294</v>
       </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343">
-        <v>1</v>
-      </c>
-      <c r="B343" t="s">
+      <c r="A343" s="4" t="s">
         <v>295</v>
       </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344">
-        <v>1</v>
-      </c>
-      <c r="B344" t="s">
+      <c r="A344" s="4" t="s">
         <v>296</v>
       </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345">
-        <v>1</v>
-      </c>
-      <c r="B345" t="s">
+      <c r="A345" s="4" t="s">
         <v>297</v>
       </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346">
-        <v>1</v>
-      </c>
-      <c r="B346" t="s">
+      <c r="A346" s="4" t="s">
         <v>298</v>
       </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347">
-        <v>1</v>
-      </c>
-      <c r="B347" t="s">
+      <c r="A347" s="4" t="s">
         <v>299</v>
       </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348">
-        <v>1</v>
-      </c>
-      <c r="B348" t="s">
+      <c r="A348" s="4" t="s">
         <v>300</v>
       </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349">
-        <v>0</v>
-      </c>
-      <c r="B349" t="s">
+      <c r="A349" s="4" t="s">
         <v>301</v>
       </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350">
-        <v>0</v>
-      </c>
-      <c r="B350" t="s">
+      <c r="A350" s="4" t="s">
         <v>302</v>
       </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351">
-        <v>1</v>
-      </c>
-      <c r="B351" t="s">
+      <c r="A351" s="4" t="s">
         <v>158</v>
       </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352">
-        <v>0</v>
-      </c>
-      <c r="B352" t="s">
+      <c r="A352" s="4" t="s">
         <v>303</v>
       </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353">
-        <v>1</v>
-      </c>
-      <c r="B353" t="s">
+      <c r="A353" s="4" t="s">
         <v>304</v>
       </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354">
-        <v>1</v>
-      </c>
-      <c r="B354" t="s">
+      <c r="A354" s="4" t="s">
         <v>305</v>
       </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355">
-        <v>1</v>
-      </c>
-      <c r="B355" t="s">
+      <c r="A355" s="4" t="s">
         <v>306</v>
       </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356">
-        <v>0</v>
-      </c>
-      <c r="B356" t="s">
+      <c r="A356" s="4" t="s">
         <v>307</v>
       </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357">
-        <v>0</v>
-      </c>
-      <c r="B357" t="s">
+      <c r="A357" s="4" t="s">
         <v>308</v>
       </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358">
-        <v>0</v>
-      </c>
-      <c r="B358" t="s">
+      <c r="A358" s="4" t="s">
         <v>309</v>
       </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359">
-        <v>0</v>
-      </c>
-      <c r="B359" t="s">
+      <c r="A359" s="4" t="s">
         <v>310</v>
       </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360">
-        <v>0</v>
-      </c>
-      <c r="B360" t="s">
+      <c r="A360" s="4" t="s">
         <v>258</v>
       </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361">
-        <v>0</v>
-      </c>
-      <c r="B361" t="s">
+      <c r="A361" s="4" t="s">
         <v>236</v>
       </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362">
-        <v>1</v>
-      </c>
-      <c r="B362" t="s">
+      <c r="A362" s="4" t="s">
         <v>311</v>
       </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363">
-        <v>1</v>
-      </c>
-      <c r="B363" t="s">
+      <c r="A363" s="4" t="s">
         <v>312</v>
       </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364">
-        <v>1</v>
-      </c>
-      <c r="B364" t="s">
+      <c r="A364" s="4" t="s">
         <v>313</v>
       </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365">
-        <v>0</v>
-      </c>
-      <c r="B365" t="s">
+      <c r="A365" s="4" t="s">
         <v>314</v>
       </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366">
-        <v>0</v>
-      </c>
-      <c r="B366" t="s">
+      <c r="A366" s="4" t="s">
         <v>315</v>
       </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367">
-        <v>1</v>
-      </c>
-      <c r="B367" t="s">
+      <c r="A367" s="4" t="s">
         <v>316</v>
       </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368">
-        <v>0</v>
-      </c>
-      <c r="B368" t="s">
+      <c r="A368" s="4" t="s">
         <v>317</v>
       </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369">
-        <v>0</v>
-      </c>
-      <c r="B369" t="s">
+      <c r="A369" s="4" t="s">
         <v>318</v>
       </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370">
-        <v>1</v>
-      </c>
-      <c r="B370" t="s">
+      <c r="A370" s="4" t="s">
         <v>319</v>
       </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371">
-        <v>0</v>
-      </c>
-      <c r="B371" t="s">
+      <c r="A371" s="4" t="s">
         <v>320</v>
       </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372">
-        <v>1</v>
-      </c>
-      <c r="B372" t="s">
+      <c r="A372" s="4" t="s">
         <v>321</v>
       </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373">
-        <v>0</v>
-      </c>
-      <c r="B373" t="s">
+      <c r="A373" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374">
-        <v>0</v>
-      </c>
-      <c r="B374" t="s">
+      <c r="A374" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375">
-        <v>0</v>
-      </c>
-      <c r="B375" t="s">
+      <c r="A375" s="4" t="s">
         <v>322</v>
       </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376">
-        <v>1</v>
-      </c>
-      <c r="B376" t="s">
+      <c r="A376" s="4" t="s">
         <v>323</v>
       </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377">
-        <v>0</v>
-      </c>
-      <c r="B377" t="s">
+      <c r="A377" s="4" t="s">
         <v>324</v>
       </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378">
-        <v>0</v>
-      </c>
-      <c r="B378" t="s">
+      <c r="A378" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379">
-        <v>1</v>
-      </c>
-      <c r="B379" t="s">
+      <c r="A379" s="4" t="s">
         <v>325</v>
       </c>
+      <c r="B379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380">
-        <v>0</v>
-      </c>
-      <c r="B380" t="s">
+      <c r="A380" s="4" t="s">
         <v>326</v>
       </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381">
-        <v>1</v>
-      </c>
-      <c r="B381" t="s">
+      <c r="A381" s="4" t="s">
         <v>327</v>
       </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382">
-        <v>0</v>
-      </c>
-      <c r="B382" t="s">
+      <c r="A382" s="4" t="s">
         <v>328</v>
       </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383">
-        <v>0</v>
-      </c>
-      <c r="B383" t="s">
+      <c r="A383" s="4" t="s">
         <v>329</v>
       </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384">
-        <v>1</v>
-      </c>
-      <c r="B384" t="s">
+      <c r="A384" s="4" t="s">
         <v>330</v>
       </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385">
-        <v>0</v>
-      </c>
-      <c r="B385" t="s">
+      <c r="A385" s="4" t="s">
         <v>331</v>
       </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386">
-        <v>1</v>
-      </c>
-      <c r="B386" t="s">
+      <c r="A386" s="4" t="s">
         <v>332</v>
       </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387">
-        <v>0</v>
-      </c>
-      <c r="B387" t="s">
+      <c r="A387" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388">
-        <v>0</v>
-      </c>
-      <c r="B388" t="s">
+      <c r="A388" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B388">
+        <v>0</v>
+      </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389">
-        <v>1</v>
-      </c>
-      <c r="B389" t="s">
+      <c r="A389" s="4" t="s">
         <v>333</v>
       </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390">
-        <v>0</v>
-      </c>
-      <c r="B390" t="s">
+      <c r="A390" s="4" t="s">
         <v>334</v>
       </c>
+      <c r="B390">
+        <v>0</v>
+      </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391">
-        <v>0</v>
-      </c>
-      <c r="B391" t="s">
+      <c r="A391" s="4" t="s">
         <v>335</v>
       </c>
+      <c r="B391">
+        <v>0</v>
+      </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392">
-        <v>1</v>
-      </c>
-      <c r="B392" t="s">
+      <c r="A392" s="4" t="s">
         <v>336</v>
       </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393">
-        <v>0</v>
-      </c>
-      <c r="B393" t="s">
+      <c r="A393" s="4" t="s">
         <v>337</v>
       </c>
+      <c r="B393">
+        <v>0</v>
+      </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394">
-        <v>0</v>
-      </c>
-      <c r="B394" t="s">
+      <c r="A394" s="4" t="s">
         <v>338</v>
       </c>
+      <c r="B394">
+        <v>0</v>
+      </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395">
-        <v>1</v>
-      </c>
-      <c r="B395" t="s">
+      <c r="A395" s="4" t="s">
         <v>339</v>
       </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396">
-        <v>0</v>
-      </c>
-      <c r="B396" t="s">
+      <c r="A396" s="4" t="s">
         <v>340</v>
       </c>
+      <c r="B396">
+        <v>0</v>
+      </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397">
-        <v>1</v>
-      </c>
-      <c r="B397" t="s">
+      <c r="A397" s="4" t="s">
         <v>341</v>
       </c>
+      <c r="B397">
+        <v>1</v>
+      </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398">
-        <v>1</v>
-      </c>
-      <c r="B398" t="s">
+      <c r="A398" s="4" t="s">
         <v>342</v>
       </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399">
-        <v>0</v>
-      </c>
-      <c r="B399" t="s">
+      <c r="A399" s="4" t="s">
         <v>343</v>
       </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400">
-        <v>1</v>
-      </c>
-      <c r="B400" t="s">
+      <c r="A400" s="4" t="s">
         <v>344</v>
       </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401">
-        <v>0</v>
-      </c>
-      <c r="B401" t="s">
+      <c r="A401" s="4" t="s">
         <v>345</v>
       </c>
+      <c r="B401">
+        <v>0</v>
+      </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402">
-        <v>0</v>
-      </c>
-      <c r="B402" t="s">
+      <c r="A402" s="4" t="s">
         <v>346</v>
       </c>
+      <c r="B402">
+        <v>0</v>
+      </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403">
-        <v>0</v>
-      </c>
-      <c r="B403" t="s">
+      <c r="A403" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B403">
+        <v>0</v>
+      </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404">
-        <v>1</v>
-      </c>
-      <c r="B404" t="s">
+      <c r="A404" s="4" t="s">
         <v>347</v>
       </c>
+      <c r="B404">
+        <v>1</v>
+      </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405">
-        <v>0</v>
-      </c>
-      <c r="B405" t="s">
+      <c r="A405" s="4" t="s">
         <v>348</v>
       </c>
+      <c r="B405">
+        <v>0</v>
+      </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406">
-        <v>0</v>
-      </c>
-      <c r="B406" t="s">
+      <c r="A406" s="4" t="s">
         <v>349</v>
       </c>
+      <c r="B406">
+        <v>0</v>
+      </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407">
-        <v>0</v>
-      </c>
-      <c r="B407" t="s">
+      <c r="A407" s="4" t="s">
         <v>258</v>
       </c>
+      <c r="B407">
+        <v>0</v>
+      </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408">
-        <v>1</v>
-      </c>
-      <c r="B408" t="s">
+      <c r="A408" s="4" t="s">
         <v>283</v>
       </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409">
-        <v>0</v>
-      </c>
-      <c r="B409" t="s">
+      <c r="A409" s="4" t="s">
         <v>350</v>
       </c>
+      <c r="B409">
+        <v>0</v>
+      </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410">
-        <v>1</v>
-      </c>
-      <c r="B410" t="s">
+      <c r="A410" s="4" t="s">
         <v>351</v>
       </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411">
-        <v>1</v>
-      </c>
-      <c r="B411" t="s">
+      <c r="A411" s="4" t="s">
         <v>352</v>
       </c>
+      <c r="B411">
+        <v>1</v>
+      </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412">
-        <v>1</v>
-      </c>
-      <c r="B412" t="s">
+      <c r="A412" s="4" t="s">
         <v>312</v>
       </c>
+      <c r="B412">
+        <v>1</v>
+      </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413">
-        <v>1</v>
-      </c>
-      <c r="B413" t="s">
+      <c r="A413" s="4" t="s">
         <v>353</v>
       </c>
+      <c r="B413">
+        <v>1</v>
+      </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414">
-        <v>1</v>
-      </c>
-      <c r="B414" t="s">
+      <c r="A414" s="4" t="s">
         <v>354</v>
       </c>
+      <c r="B414">
+        <v>1</v>
+      </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415">
-        <v>1</v>
-      </c>
-      <c r="B415" t="s">
+      <c r="A415" s="4" t="s">
         <v>355</v>
       </c>
+      <c r="B415">
+        <v>1</v>
+      </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416">
-        <v>0</v>
-      </c>
-      <c r="B416" t="s">
+      <c r="A416" s="4" t="s">
         <v>356</v>
       </c>
+      <c r="B416">
+        <v>0</v>
+      </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417">
-        <v>0</v>
-      </c>
-      <c r="B417" t="s">
+      <c r="A417" s="4" t="s">
         <v>357</v>
       </c>
+      <c r="B417">
+        <v>0</v>
+      </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418">
-        <v>1</v>
-      </c>
-      <c r="B418" t="s">
+      <c r="A418" s="4" t="s">
         <v>358</v>
       </c>
+      <c r="B418">
+        <v>1</v>
+      </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419">
-        <v>0</v>
-      </c>
-      <c r="B419" t="s">
+      <c r="A419" s="4" t="s">
         <v>359</v>
       </c>
+      <c r="B419">
+        <v>0</v>
+      </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420">
-        <v>0</v>
-      </c>
-      <c r="B420" t="s">
+      <c r="A420" s="4" t="s">
         <v>360</v>
       </c>
+      <c r="B420">
+        <v>0</v>
+      </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421">
-        <v>0</v>
-      </c>
-      <c r="B421" t="s">
+      <c r="A421" s="4" t="s">
         <v>361</v>
       </c>
+      <c r="B421">
+        <v>0</v>
+      </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422">
-        <v>1</v>
-      </c>
-      <c r="B422" t="s">
+      <c r="A422" s="4" t="s">
         <v>362</v>
       </c>
+      <c r="B422">
+        <v>1</v>
+      </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423">
-        <v>1</v>
-      </c>
-      <c r="B423" t="s">
+      <c r="A423" s="4" t="s">
         <v>363</v>
       </c>
+      <c r="B423">
+        <v>1</v>
+      </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424">
-        <v>0</v>
-      </c>
-      <c r="B424" t="s">
+      <c r="A424" s="4" t="s">
         <v>364</v>
       </c>
+      <c r="B424">
+        <v>0</v>
+      </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425">
-        <v>0</v>
-      </c>
-      <c r="B425" t="s">
+      <c r="A425" s="4" t="s">
         <v>365</v>
       </c>
+      <c r="B425">
+        <v>0</v>
+      </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426">
-        <v>0</v>
-      </c>
-      <c r="B426" t="s">
+      <c r="A426" s="4" t="s">
         <v>366</v>
       </c>
+      <c r="B426">
+        <v>0</v>
+      </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427">
-        <v>1</v>
-      </c>
-      <c r="B427" t="s">
+      <c r="A427" s="4" t="s">
         <v>367</v>
       </c>
+      <c r="B427">
+        <v>1</v>
+      </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428">
-        <v>0</v>
-      </c>
-      <c r="B428" t="s">
+      <c r="A428" s="4" t="s">
         <v>368</v>
       </c>
+      <c r="B428">
+        <v>0</v>
+      </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A429">
-        <v>0</v>
-      </c>
-      <c r="B429" t="s">
+      <c r="A429" s="4" t="s">
         <v>369</v>
       </c>
+      <c r="B429">
+        <v>0</v>
+      </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A430">
-        <v>0</v>
-      </c>
-      <c r="B430" t="s">
+      <c r="A430" s="4" t="s">
         <v>370</v>
       </c>
+      <c r="B430">
+        <v>0</v>
+      </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A431">
-        <v>1</v>
-      </c>
-      <c r="B431" t="s">
+      <c r="A431" s="4" t="s">
         <v>371</v>
       </c>
+      <c r="B431">
+        <v>1</v>
+      </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432">
-        <v>1</v>
-      </c>
-      <c r="B432" t="s">
+      <c r="A432" s="4" t="s">
         <v>372</v>
       </c>
+      <c r="B432">
+        <v>1</v>
+      </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433">
-        <v>0</v>
-      </c>
-      <c r="B433" t="s">
+      <c r="A433" s="4" t="s">
         <v>373</v>
       </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434">
-        <v>0</v>
-      </c>
-      <c r="B434" t="s">
+      <c r="A434" s="4" t="s">
         <v>374</v>
       </c>
+      <c r="B434">
+        <v>0</v>
+      </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435">
-        <v>1</v>
-      </c>
-      <c r="B435" t="s">
+      <c r="A435" s="4" t="s">
         <v>375</v>
       </c>
+      <c r="B435">
+        <v>1</v>
+      </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436">
-        <v>0</v>
-      </c>
-      <c r="B436" t="s">
+      <c r="A436" s="4" t="s">
         <v>376</v>
       </c>
+      <c r="B436">
+        <v>0</v>
+      </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437">
-        <v>1</v>
-      </c>
-      <c r="B437" t="s">
+      <c r="A437" s="4" t="s">
         <v>158</v>
       </c>
+      <c r="B437">
+        <v>1</v>
+      </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438">
-        <v>0</v>
-      </c>
-      <c r="B438" t="s">
+      <c r="A438" s="4" t="s">
         <v>377</v>
       </c>
+      <c r="B438">
+        <v>0</v>
+      </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439">
-        <v>1</v>
-      </c>
-      <c r="B439" t="s">
+      <c r="A439" s="4" t="s">
         <v>378</v>
       </c>
+      <c r="B439">
+        <v>1</v>
+      </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440">
-        <v>0</v>
-      </c>
-      <c r="B440" t="s">
+      <c r="A440" s="4" t="s">
         <v>379</v>
       </c>
+      <c r="B440">
+        <v>0</v>
+      </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441">
-        <v>0</v>
-      </c>
-      <c r="B441" t="s">
+      <c r="A441" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B441">
+        <v>0</v>
+      </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442">
-        <v>1</v>
-      </c>
-      <c r="B442" t="s">
+      <c r="A442" s="4" t="s">
         <v>380</v>
       </c>
+      <c r="B442">
+        <v>1</v>
+      </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443">
-        <v>0</v>
-      </c>
-      <c r="B443" t="s">
+      <c r="A443" s="4" t="s">
         <v>381</v>
       </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444">
-        <v>0</v>
-      </c>
-      <c r="B444" t="s">
+      <c r="A444" s="4" t="s">
         <v>382</v>
       </c>
+      <c r="B444">
+        <v>0</v>
+      </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445">
-        <v>0</v>
-      </c>
-      <c r="B445" t="s">
+      <c r="A445" s="4" t="s">
         <v>383</v>
       </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446">
-        <v>0</v>
-      </c>
-      <c r="B446" t="s">
+      <c r="A446" s="4" t="s">
         <v>384</v>
       </c>
+      <c r="B446">
+        <v>0</v>
+      </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447">
-        <v>0</v>
-      </c>
-      <c r="B447" t="s">
+      <c r="A447" s="4" t="s">
         <v>385</v>
       </c>
+      <c r="B447">
+        <v>0</v>
+      </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448">
-        <v>0</v>
-      </c>
-      <c r="B448" t="s">
+      <c r="A448" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="B448">
+        <v>0</v>
+      </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449">
-        <v>1</v>
-      </c>
-      <c r="B449" t="s">
+      <c r="A449" s="4" t="s">
         <v>386</v>
       </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450">
-        <v>0</v>
-      </c>
-      <c r="B450" t="s">
+      <c r="A450" s="4" t="s">
         <v>387</v>
       </c>
+      <c r="B450">
+        <v>0</v>
+      </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451">
-        <v>0</v>
-      </c>
-      <c r="B451" t="s">
+      <c r="A451" s="4" t="s">
         <v>388</v>
       </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A452">
-        <v>1</v>
-      </c>
-      <c r="B452" t="s">
+      <c r="A452" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="B452">
+        <v>1</v>
+      </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453">
-        <v>0</v>
-      </c>
-      <c r="B453" t="s">
+      <c r="A453" s="4" t="s">
         <v>389</v>
       </c>
+      <c r="B453">
+        <v>0</v>
+      </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A454">
-        <v>0</v>
-      </c>
-      <c r="B454" t="s">
+      <c r="A454" s="4" t="s">
         <v>390</v>
       </c>
+      <c r="B454">
+        <v>0</v>
+      </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A455">
-        <v>0</v>
-      </c>
-      <c r="B455" t="s">
+      <c r="A455" s="4" t="s">
         <v>391</v>
       </c>
+      <c r="B455">
+        <v>0</v>
+      </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456">
-        <v>0</v>
-      </c>
-      <c r="B456" t="s">
+      <c r="A456" s="4" t="s">
         <v>392</v>
       </c>
+      <c r="B456">
+        <v>0</v>
+      </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457">
-        <v>0</v>
-      </c>
-      <c r="B457" t="s">
+      <c r="A457" s="4" t="s">
         <v>393</v>
       </c>
+      <c r="B457">
+        <v>0</v>
+      </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458">
-        <v>0</v>
-      </c>
-      <c r="B458" t="s">
+      <c r="A458" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B458">
+        <v>0</v>
+      </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A459">
-        <v>1</v>
-      </c>
-      <c r="B459" t="s">
+      <c r="A459" s="4" t="s">
         <v>394</v>
       </c>
+      <c r="B459">
+        <v>1</v>
+      </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460">
-        <v>0</v>
-      </c>
-      <c r="B460" t="s">
+      <c r="A460" s="4" t="s">
         <v>395</v>
       </c>
+      <c r="B460">
+        <v>0</v>
+      </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461">
-        <v>0</v>
-      </c>
-      <c r="B461" t="s">
+      <c r="A461" s="4" t="s">
         <v>396</v>
       </c>
+      <c r="B461">
+        <v>0</v>
+      </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A462">
-        <v>0</v>
-      </c>
-      <c r="B462" t="s">
+      <c r="A462" s="4" t="s">
         <v>397</v>
       </c>
+      <c r="B462">
+        <v>0</v>
+      </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463">
-        <v>0</v>
-      </c>
-      <c r="B463" t="s">
+      <c r="A463" s="4" t="s">
         <v>398</v>
       </c>
+      <c r="B463">
+        <v>0</v>
+      </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464">
-        <v>1</v>
-      </c>
-      <c r="B464" t="s">
+      <c r="A464" s="4" t="s">
         <v>399</v>
       </c>
+      <c r="B464">
+        <v>1</v>
+      </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A465">
-        <v>1</v>
-      </c>
-      <c r="B465" t="s">
+      <c r="A465" s="4" t="s">
         <v>400</v>
       </c>
+      <c r="B465">
+        <v>1</v>
+      </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A466">
-        <v>0</v>
-      </c>
-      <c r="B466" t="s">
+      <c r="A466" s="4" t="s">
         <v>401</v>
       </c>
+      <c r="B466">
+        <v>0</v>
+      </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467">
-        <v>0</v>
-      </c>
-      <c r="B467" t="s">
+      <c r="A467" s="4" t="s">
         <v>402</v>
       </c>
+      <c r="B467">
+        <v>0</v>
+      </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468">
-        <v>0</v>
-      </c>
-      <c r="B468" t="s">
+      <c r="A468" s="4" t="s">
         <v>403</v>
       </c>
+      <c r="B468">
+        <v>0</v>
+      </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469">
-        <v>0</v>
-      </c>
-      <c r="B469" t="s">
+      <c r="A469" s="4" t="s">
         <v>404</v>
       </c>
+      <c r="B469">
+        <v>0</v>
+      </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470">
-        <v>0</v>
-      </c>
-      <c r="B470" t="s">
+      <c r="A470" s="4" t="s">
         <v>405</v>
       </c>
+      <c r="B470">
+        <v>0</v>
+      </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A471">
-        <v>0</v>
-      </c>
-      <c r="B471" t="s">
+      <c r="A471" s="4" t="s">
         <v>406</v>
       </c>
+      <c r="B471">
+        <v>0</v>
+      </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472">
-        <v>0</v>
-      </c>
-      <c r="B472" t="s">
+      <c r="A472" s="4" t="s">
         <v>407</v>
       </c>
+      <c r="B472">
+        <v>0</v>
+      </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473">
-        <v>1</v>
-      </c>
-      <c r="B473" t="s">
+      <c r="A473" s="4" t="s">
         <v>408</v>
       </c>
+      <c r="B473">
+        <v>1</v>
+      </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474">
-        <v>0</v>
-      </c>
-      <c r="B474" t="s">
+      <c r="A474" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B474">
+        <v>0</v>
+      </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475">
-        <v>0</v>
-      </c>
-      <c r="B475" t="s">
+      <c r="A475" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B475">
+        <v>0</v>
+      </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476">
-        <v>0</v>
-      </c>
-      <c r="B476" t="s">
+      <c r="A476" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B476">
+        <v>0</v>
+      </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477">
-        <v>0</v>
-      </c>
-      <c r="B477" t="s">
+      <c r="A477" s="4" t="s">
         <v>409</v>
       </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478">
-        <v>0</v>
-      </c>
-      <c r="B478" t="s">
+      <c r="A478" s="4" t="s">
         <v>410</v>
       </c>
+      <c r="B478">
+        <v>0</v>
+      </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479">
-        <v>1</v>
-      </c>
-      <c r="B479" t="s">
+      <c r="A479" s="4" t="s">
         <v>411</v>
       </c>
+      <c r="B479">
+        <v>1</v>
+      </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A480">
-        <v>1</v>
-      </c>
-      <c r="B480" t="s">
+      <c r="A480" s="4" t="s">
         <v>412</v>
       </c>
+      <c r="B480">
+        <v>1</v>
+      </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481">
-        <v>0</v>
-      </c>
-      <c r="B481" t="s">
+      <c r="A481" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B481">
+        <v>0</v>
+      </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482">
-        <v>1</v>
-      </c>
-      <c r="B482" t="s">
+      <c r="A482" s="4" t="s">
         <v>413</v>
       </c>
+      <c r="B482">
+        <v>1</v>
+      </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483">
-        <v>0</v>
-      </c>
-      <c r="B483" t="s">
+      <c r="A483" s="4" t="s">
         <v>414</v>
       </c>
+      <c r="B483">
+        <v>0</v>
+      </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484">
-        <v>0</v>
-      </c>
-      <c r="B484" t="s">
+      <c r="A484" s="4" t="s">
         <v>415</v>
       </c>
+      <c r="B484">
+        <v>0</v>
+      </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485">
-        <v>0</v>
-      </c>
-      <c r="B485" t="s">
+      <c r="A485" s="4" t="s">
         <v>416</v>
       </c>
+      <c r="B485">
+        <v>0</v>
+      </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486">
-        <v>0</v>
-      </c>
-      <c r="B486" t="s">
+      <c r="A486" s="4" t="s">
         <v>417</v>
       </c>
+      <c r="B486">
+        <v>0</v>
+      </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487">
-        <v>0</v>
-      </c>
-      <c r="B487" t="s">
+      <c r="A487" s="4" t="s">
         <v>418</v>
       </c>
+      <c r="B487">
+        <v>0</v>
+      </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488">
-        <v>1</v>
-      </c>
-      <c r="B488" t="s">
+      <c r="A488" s="4" t="s">
         <v>419</v>
       </c>
+      <c r="B488">
+        <v>1</v>
+      </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489">
-        <v>0</v>
-      </c>
-      <c r="B489" t="s">
+      <c r="A489" s="4" t="s">
         <v>420</v>
       </c>
+      <c r="B489">
+        <v>0</v>
+      </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490">
-        <v>0</v>
-      </c>
-      <c r="B490" t="s">
+      <c r="A490" s="4" t="s">
         <v>421</v>
       </c>
+      <c r="B490">
+        <v>0</v>
+      </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491">
-        <v>0</v>
-      </c>
-      <c r="B491" t="s">
+      <c r="A491" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B491">
+        <v>0</v>
+      </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492">
-        <v>1</v>
-      </c>
-      <c r="B492" t="s">
+      <c r="A492" s="4" t="s">
         <v>422</v>
       </c>
+      <c r="B492">
+        <v>1</v>
+      </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493">
-        <v>1</v>
-      </c>
-      <c r="B493" t="s">
+      <c r="A493" s="4" t="s">
         <v>423</v>
       </c>
+      <c r="B493">
+        <v>1</v>
+      </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494">
-        <v>0</v>
-      </c>
-      <c r="B494" t="s">
+      <c r="A494" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B494">
+        <v>0</v>
+      </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495">
-        <v>0</v>
-      </c>
-      <c r="B495" t="s">
+      <c r="A495" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B495">
+        <v>0</v>
+      </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496">
-        <v>0</v>
-      </c>
-      <c r="B496" t="s">
+      <c r="A496" s="4" t="s">
         <v>424</v>
       </c>
+      <c r="B496">
+        <v>0</v>
+      </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A497">
-        <v>1</v>
-      </c>
-      <c r="B497" t="s">
+      <c r="A497" s="4" t="s">
         <v>425</v>
       </c>
+      <c r="B497">
+        <v>1</v>
+      </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A498">
-        <v>0</v>
-      </c>
-      <c r="B498" t="s">
+      <c r="A498" s="4" t="s">
         <v>426</v>
       </c>
+      <c r="B498">
+        <v>0</v>
+      </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A499">
-        <v>0</v>
-      </c>
-      <c r="B499" t="s">
+      <c r="A499" s="4" t="s">
         <v>288</v>
       </c>
+      <c r="B499">
+        <v>0</v>
+      </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500">
-        <v>1</v>
-      </c>
-      <c r="B500" t="s">
+      <c r="A500" s="4" t="s">
         <v>427</v>
       </c>
+      <c r="B500">
+        <v>1</v>
+      </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A501">
-        <v>1</v>
-      </c>
-      <c r="B501" t="s">
+      <c r="A501" s="4" t="s">
         <v>428</v>
       </c>
+      <c r="B501">
+        <v>1</v>
+      </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A502" s="3"/>
+      <c r="B502" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Netflix.xlsx
+++ b/Netflix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\projeto2-cdados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB312CB-2C1F-48E9-A91B-81C1EC5A7D76}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA54872-06E2-4E47-8BD3-D4D636FB5D6B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="682">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2658,7 +2658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B502"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -6687,1518 +6687,2430 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A301"/>
+  <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="B302" sqref="B302"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>3</v>
       </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B302" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Netflix.xlsx
+++ b/Netflix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\projeto2-cdados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA54872-06E2-4E47-8BD3-D4D636FB5D6B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DF2891-A667-4DA1-9E9C-D195DB8AE071}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2658,8 +2658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B502"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="A302" sqref="A302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2705,7 +2705,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2713,7 +2713,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2937,7 +2937,7 @@
         <v>28</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2993,7 +2993,7 @@
         <v>34</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3017,7 +3017,7 @@
         <v>36</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3057,7 +3057,7 @@
         <v>41</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3065,7 +3065,7 @@
         <v>42</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3089,7 +3089,7 @@
         <v>45</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3113,7 +3113,7 @@
         <v>48</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3121,7 +3121,7 @@
         <v>49</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -3129,7 +3129,7 @@
         <v>50</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -3137,7 +3137,7 @@
         <v>51</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -3161,7 +3161,7 @@
         <v>53</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3177,7 +3177,7 @@
         <v>55</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -3217,7 +3217,7 @@
         <v>60</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -3281,7 +3281,7 @@
         <v>66</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -3297,7 +3297,7 @@
         <v>68</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -3329,7 +3329,7 @@
         <v>71</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -3385,7 +3385,7 @@
         <v>76</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -3425,7 +3425,7 @@
         <v>81</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -3433,7 +3433,7 @@
         <v>82</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3529,7 +3529,7 @@
         <v>94</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3585,7 +3585,7 @@
         <v>101</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -3593,7 +3593,7 @@
         <v>102</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -3649,7 +3649,7 @@
         <v>108</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -3657,7 +3657,7 @@
         <v>109</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -3825,7 +3825,7 @@
         <v>127</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3889,7 +3889,7 @@
         <v>134</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3945,7 +3945,7 @@
         <v>141</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3961,7 +3961,7 @@
         <v>142</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -3993,7 +3993,7 @@
         <v>146</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -4017,7 +4017,7 @@
         <v>148</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -4193,7 +4193,7 @@
         <v>164</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -4417,7 +4417,7 @@
         <v>190</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -4641,7 +4641,7 @@
         <v>211</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -4737,7 +4737,7 @@
         <v>220</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -4825,7 +4825,7 @@
         <v>230</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -5025,7 +5025,7 @@
         <v>252</v>
       </c>
       <c r="B295">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -6689,7 +6689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+    <sheetView topLeftCell="A281" workbookViewId="0">
       <selection activeCell="B302" sqref="B302"/>
     </sheetView>
   </sheetViews>
